--- a/database/sidis/expdata/1012affinity01.xlsx
+++ b/database/sidis/expdata/1012affinity01.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="25">
   <si>
     <t>Ebeam</t>
   </si>
@@ -77,6 +77,18 @@
   </si>
   <si>
     <t>affinity</t>
+  </si>
+  <si>
+    <t>hermes</t>
+  </si>
+  <si>
+    <t>k+</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>proton</t>
   </si>
 </sst>
 </file>
@@ -434,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:U1"/>
+  <dimension ref="A1:U17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -505,6 +517,1046 @@
         <v>20</v>
       </c>
     </row>
+    <row r="2" spans="1:21">
+      <c r="A2">
+        <v>27.6</v>
+      </c>
+      <c r="B2">
+        <v>0.3332465261656717</v>
+      </c>
+      <c r="C2">
+        <v>5.24127</v>
+      </c>
+      <c r="D2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F2">
+        <v>273</v>
+      </c>
+      <c r="G2" t="s">
+        <v>23</v>
+      </c>
+      <c r="H2">
+        <v>0.1016114</v>
+      </c>
+      <c r="I2">
+        <v>0.001621719</v>
+      </c>
+      <c r="J2">
+        <v>0.003267977</v>
+      </c>
+      <c r="K2">
+        <v>0</v>
+      </c>
+      <c r="L2" t="s">
+        <v>24</v>
+      </c>
+      <c r="M2">
+        <v>0.007467648</v>
+      </c>
+      <c r="N2">
+        <v>0.2538812</v>
+      </c>
+      <c r="O2">
+        <v>0.35</v>
+      </c>
+      <c r="P2">
+        <v>0.2</v>
+      </c>
+      <c r="Q2">
+        <v>0.398600791040684</v>
+      </c>
+      <c r="R2">
+        <v>0.8784745</v>
+      </c>
+      <c r="S2">
+        <v>1.1</v>
+      </c>
+      <c r="T2">
+        <v>0.8</v>
+      </c>
+      <c r="U2">
+        <v>0.384099999999974</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21">
+      <c r="A3">
+        <v>27.6</v>
+      </c>
+      <c r="B3">
+        <v>0.3332465261656717</v>
+      </c>
+      <c r="C3">
+        <v>5.24127</v>
+      </c>
+      <c r="D3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F3">
+        <v>274</v>
+      </c>
+      <c r="G3" t="s">
+        <v>23</v>
+      </c>
+      <c r="H3">
+        <v>0.2007746</v>
+      </c>
+      <c r="I3">
+        <v>0.003300239</v>
+      </c>
+      <c r="J3">
+        <v>0.007095768</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+      <c r="L3" t="s">
+        <v>24</v>
+      </c>
+      <c r="M3">
+        <v>0.01620862</v>
+      </c>
+      <c r="N3">
+        <v>0.2538812</v>
+      </c>
+      <c r="O3">
+        <v>0.35</v>
+      </c>
+      <c r="P3">
+        <v>0.2</v>
+      </c>
+      <c r="Q3">
+        <v>0.398600791040684</v>
+      </c>
+      <c r="R3">
+        <v>0.8772753</v>
+      </c>
+      <c r="S3">
+        <v>1.1</v>
+      </c>
+      <c r="T3">
+        <v>0.8</v>
+      </c>
+      <c r="U3">
+        <v>0.4090999999999713</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21">
+      <c r="A4">
+        <v>27.6</v>
+      </c>
+      <c r="B4">
+        <v>0.3332465261656717</v>
+      </c>
+      <c r="C4">
+        <v>5.24127</v>
+      </c>
+      <c r="D4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E4" t="s">
+        <v>22</v>
+      </c>
+      <c r="F4">
+        <v>275</v>
+      </c>
+      <c r="G4" t="s">
+        <v>23</v>
+      </c>
+      <c r="H4">
+        <v>0.3043945</v>
+      </c>
+      <c r="I4">
+        <v>0.003660993</v>
+      </c>
+      <c r="J4">
+        <v>0.009535146</v>
+      </c>
+      <c r="K4">
+        <v>0</v>
+      </c>
+      <c r="L4" t="s">
+        <v>24</v>
+      </c>
+      <c r="M4">
+        <v>0.02175507</v>
+      </c>
+      <c r="N4">
+        <v>0.2538812</v>
+      </c>
+      <c r="O4">
+        <v>0.35</v>
+      </c>
+      <c r="P4">
+        <v>0.2</v>
+      </c>
+      <c r="Q4">
+        <v>0.398600791040684</v>
+      </c>
+      <c r="R4">
+        <v>0.8697765</v>
+      </c>
+      <c r="S4">
+        <v>1.1</v>
+      </c>
+      <c r="T4">
+        <v>0.8</v>
+      </c>
+      <c r="U4">
+        <v>0.4067999999999715</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21">
+      <c r="A5">
+        <v>27.6</v>
+      </c>
+      <c r="B5">
+        <v>0.3332465261656717</v>
+      </c>
+      <c r="C5">
+        <v>5.24127</v>
+      </c>
+      <c r="D5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E5" t="s">
+        <v>22</v>
+      </c>
+      <c r="F5">
+        <v>276</v>
+      </c>
+      <c r="G5" t="s">
+        <v>23</v>
+      </c>
+      <c r="H5">
+        <v>0.3993641</v>
+      </c>
+      <c r="I5">
+        <v>0.003925905</v>
+      </c>
+      <c r="J5">
+        <v>0.009567905999999999</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+      <c r="L5" t="s">
+        <v>24</v>
+      </c>
+      <c r="M5">
+        <v>0.02181776</v>
+      </c>
+      <c r="N5">
+        <v>0.2538812</v>
+      </c>
+      <c r="O5">
+        <v>0.35</v>
+      </c>
+      <c r="P5">
+        <v>0.2</v>
+      </c>
+      <c r="Q5">
+        <v>0.398600791040684</v>
+      </c>
+      <c r="R5">
+        <v>0.8746969999999999</v>
+      </c>
+      <c r="S5">
+        <v>1.1</v>
+      </c>
+      <c r="T5">
+        <v>0.8</v>
+      </c>
+      <c r="U5">
+        <v>0.3947999999999728</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21">
+      <c r="A6">
+        <v>27.6</v>
+      </c>
+      <c r="B6">
+        <v>0.3332465261656717</v>
+      </c>
+      <c r="C6">
+        <v>5.24127</v>
+      </c>
+      <c r="D6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E6" t="s">
+        <v>22</v>
+      </c>
+      <c r="F6">
+        <v>277</v>
+      </c>
+      <c r="G6" t="s">
+        <v>23</v>
+      </c>
+      <c r="H6">
+        <v>0.5164439</v>
+      </c>
+      <c r="I6">
+        <v>0.002756366</v>
+      </c>
+      <c r="J6">
+        <v>0.008549398</v>
+      </c>
+      <c r="K6">
+        <v>0</v>
+      </c>
+      <c r="L6" t="s">
+        <v>24</v>
+      </c>
+      <c r="M6">
+        <v>0.01714464</v>
+      </c>
+      <c r="N6">
+        <v>0.2538812</v>
+      </c>
+      <c r="O6">
+        <v>0.35</v>
+      </c>
+      <c r="P6">
+        <v>0.2</v>
+      </c>
+      <c r="Q6">
+        <v>0.398600791040684</v>
+      </c>
+      <c r="R6">
+        <v>0.8753570000000001</v>
+      </c>
+      <c r="S6">
+        <v>1.1</v>
+      </c>
+      <c r="T6">
+        <v>0.8</v>
+      </c>
+      <c r="U6">
+        <v>0.3340999999999795</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21">
+      <c r="A7">
+        <v>27.6</v>
+      </c>
+      <c r="B7">
+        <v>0.2043116043560035</v>
+      </c>
+      <c r="C7">
+        <v>9.213259000000001</v>
+      </c>
+      <c r="D7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F7">
+        <v>322</v>
+      </c>
+      <c r="G7" t="s">
+        <v>23</v>
+      </c>
+      <c r="H7">
+        <v>0.08521774999999999</v>
+      </c>
+      <c r="I7">
+        <v>0.01420905</v>
+      </c>
+      <c r="J7">
+        <v>0.01623721</v>
+      </c>
+      <c r="K7">
+        <v>0</v>
+      </c>
+      <c r="L7" t="s">
+        <v>24</v>
+      </c>
+      <c r="M7">
+        <v>0.03819984</v>
+      </c>
+      <c r="N7">
+        <v>0.4100563</v>
+      </c>
+      <c r="O7">
+        <v>0.6</v>
+      </c>
+      <c r="P7">
+        <v>0.35</v>
+      </c>
+      <c r="Q7">
+        <v>0.433812395777442</v>
+      </c>
+      <c r="R7">
+        <v>0.6677928</v>
+      </c>
+      <c r="S7">
+        <v>0.8</v>
+      </c>
+      <c r="T7">
+        <v>0.6</v>
+      </c>
+      <c r="U7">
+        <v>0.4221999999999698</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21">
+      <c r="A8">
+        <v>27.6</v>
+      </c>
+      <c r="B8">
+        <v>0.2043169226986019</v>
+      </c>
+      <c r="C8">
+        <v>9.218268999999999</v>
+      </c>
+      <c r="D8" t="s">
+        <v>21</v>
+      </c>
+      <c r="E8" t="s">
+        <v>22</v>
+      </c>
+      <c r="F8">
+        <v>323</v>
+      </c>
+      <c r="G8" t="s">
+        <v>23</v>
+      </c>
+      <c r="H8">
+        <v>0.1997586</v>
+      </c>
+      <c r="I8">
+        <v>0.04075979</v>
+      </c>
+      <c r="J8">
+        <v>0.02182112</v>
+      </c>
+      <c r="K8">
+        <v>0</v>
+      </c>
+      <c r="L8" t="s">
+        <v>24</v>
+      </c>
+      <c r="M8">
+        <v>0.0513209</v>
+      </c>
+      <c r="N8">
+        <v>0.4100285</v>
+      </c>
+      <c r="O8">
+        <v>0.6</v>
+      </c>
+      <c r="P8">
+        <v>0.35</v>
+      </c>
+      <c r="Q8">
+        <v>0.434077723488268</v>
+      </c>
+      <c r="R8">
+        <v>0.6665624</v>
+      </c>
+      <c r="S8">
+        <v>0.8</v>
+      </c>
+      <c r="T8">
+        <v>0.6</v>
+      </c>
+      <c r="U8">
+        <v>0.4467999999999671</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21">
+      <c r="A9">
+        <v>27.6</v>
+      </c>
+      <c r="B9">
+        <v>0.2043116043560035</v>
+      </c>
+      <c r="C9">
+        <v>9.213259000000001</v>
+      </c>
+      <c r="D9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9" t="s">
+        <v>22</v>
+      </c>
+      <c r="F9">
+        <v>324</v>
+      </c>
+      <c r="G9" t="s">
+        <v>23</v>
+      </c>
+      <c r="H9">
+        <v>0.3013286</v>
+      </c>
+      <c r="I9">
+        <v>0.03268584</v>
+      </c>
+      <c r="J9">
+        <v>0.04317147</v>
+      </c>
+      <c r="K9">
+        <v>0</v>
+      </c>
+      <c r="L9" t="s">
+        <v>24</v>
+      </c>
+      <c r="M9">
+        <v>0.1014782</v>
+      </c>
+      <c r="N9">
+        <v>0.4100563</v>
+      </c>
+      <c r="O9">
+        <v>0.6</v>
+      </c>
+      <c r="P9">
+        <v>0.35</v>
+      </c>
+      <c r="Q9">
+        <v>0.433812395777442</v>
+      </c>
+      <c r="R9">
+        <v>0.6785535</v>
+      </c>
+      <c r="S9">
+        <v>0.8</v>
+      </c>
+      <c r="T9">
+        <v>0.6</v>
+      </c>
+      <c r="U9">
+        <v>0.4699999999999646</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21">
+      <c r="A10">
+        <v>27.6</v>
+      </c>
+      <c r="B10">
+        <v>0.2043116043560035</v>
+      </c>
+      <c r="C10">
+        <v>9.213259000000001</v>
+      </c>
+      <c r="D10" t="s">
+        <v>21</v>
+      </c>
+      <c r="E10" t="s">
+        <v>22</v>
+      </c>
+      <c r="F10">
+        <v>325</v>
+      </c>
+      <c r="G10" t="s">
+        <v>23</v>
+      </c>
+      <c r="H10">
+        <v>0.3943826</v>
+      </c>
+      <c r="I10">
+        <v>0.03581048</v>
+      </c>
+      <c r="J10">
+        <v>0.03322956</v>
+      </c>
+      <c r="K10">
+        <v>0</v>
+      </c>
+      <c r="L10" t="s">
+        <v>24</v>
+      </c>
+      <c r="M10">
+        <v>0.07809136</v>
+      </c>
+      <c r="N10">
+        <v>0.4100563</v>
+      </c>
+      <c r="O10">
+        <v>0.6</v>
+      </c>
+      <c r="P10">
+        <v>0.35</v>
+      </c>
+      <c r="Q10">
+        <v>0.433812395777442</v>
+      </c>
+      <c r="R10">
+        <v>0.68236</v>
+      </c>
+      <c r="S10">
+        <v>0.8</v>
+      </c>
+      <c r="T10">
+        <v>0.6</v>
+      </c>
+      <c r="U10">
+        <v>0.4355999999999683</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21">
+      <c r="A11">
+        <v>27.6</v>
+      </c>
+      <c r="B11">
+        <v>0.2043116043560035</v>
+      </c>
+      <c r="C11">
+        <v>9.213259000000001</v>
+      </c>
+      <c r="D11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11" t="s">
+        <v>22</v>
+      </c>
+      <c r="F11">
+        <v>326</v>
+      </c>
+      <c r="G11" t="s">
+        <v>23</v>
+      </c>
+      <c r="H11">
+        <v>0.5151091</v>
+      </c>
+      <c r="I11">
+        <v>0.02336123</v>
+      </c>
+      <c r="J11">
+        <v>0.04671813</v>
+      </c>
+      <c r="K11">
+        <v>0</v>
+      </c>
+      <c r="L11" t="s">
+        <v>24</v>
+      </c>
+      <c r="M11">
+        <v>0.09374535000000001</v>
+      </c>
+      <c r="N11">
+        <v>0.4100563</v>
+      </c>
+      <c r="O11">
+        <v>0.6</v>
+      </c>
+      <c r="P11">
+        <v>0.35</v>
+      </c>
+      <c r="Q11">
+        <v>0.433812395777442</v>
+      </c>
+      <c r="R11">
+        <v>0.6737194</v>
+      </c>
+      <c r="S11">
+        <v>0.8</v>
+      </c>
+      <c r="T11">
+        <v>0.6</v>
+      </c>
+      <c r="U11">
+        <v>0.3514999999999776</v>
+      </c>
+    </row>
+    <row r="12" spans="1:21">
+      <c r="A12">
+        <v>27.6</v>
+      </c>
+      <c r="B12">
+        <v>0.204306644502568</v>
+      </c>
+      <c r="C12">
+        <v>9.208596</v>
+      </c>
+      <c r="D12" t="s">
+        <v>21</v>
+      </c>
+      <c r="E12" t="s">
+        <v>22</v>
+      </c>
+      <c r="F12">
+        <v>329</v>
+      </c>
+      <c r="G12" t="s">
+        <v>23</v>
+      </c>
+      <c r="H12">
+        <v>0.09600586999999999</v>
+      </c>
+      <c r="I12">
+        <v>0.01069173</v>
+      </c>
+      <c r="J12">
+        <v>0.007877452</v>
+      </c>
+      <c r="K12">
+        <v>0</v>
+      </c>
+      <c r="L12" t="s">
+        <v>24</v>
+      </c>
+      <c r="M12">
+        <v>0.01798442</v>
+      </c>
+      <c r="N12">
+        <v>0.4100822</v>
+      </c>
+      <c r="O12">
+        <v>0.6</v>
+      </c>
+      <c r="P12">
+        <v>0.35</v>
+      </c>
+      <c r="Q12">
+        <v>0.433565450450929</v>
+      </c>
+      <c r="R12">
+        <v>0.8582909</v>
+      </c>
+      <c r="S12">
+        <v>1.1</v>
+      </c>
+      <c r="T12">
+        <v>0.8</v>
+      </c>
+      <c r="U12">
+        <v>0.6378999999999461</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21">
+      <c r="A13">
+        <v>27.6</v>
+      </c>
+      <c r="B13">
+        <v>0.2043116043560035</v>
+      </c>
+      <c r="C13">
+        <v>9.213259000000001</v>
+      </c>
+      <c r="D13" t="s">
+        <v>21</v>
+      </c>
+      <c r="E13" t="s">
+        <v>22</v>
+      </c>
+      <c r="F13">
+        <v>330</v>
+      </c>
+      <c r="G13" t="s">
+        <v>23</v>
+      </c>
+      <c r="H13">
+        <v>0.2071535</v>
+      </c>
+      <c r="I13">
+        <v>0.0128291</v>
+      </c>
+      <c r="J13">
+        <v>0.01112707</v>
+      </c>
+      <c r="K13">
+        <v>0</v>
+      </c>
+      <c r="L13" t="s">
+        <v>24</v>
+      </c>
+      <c r="M13">
+        <v>0.02544644</v>
+      </c>
+      <c r="N13">
+        <v>0.4100563</v>
+      </c>
+      <c r="O13">
+        <v>0.6</v>
+      </c>
+      <c r="P13">
+        <v>0.35</v>
+      </c>
+      <c r="Q13">
+        <v>0.433812395777442</v>
+      </c>
+      <c r="R13">
+        <v>0.8818698</v>
+      </c>
+      <c r="S13">
+        <v>1.1</v>
+      </c>
+      <c r="T13">
+        <v>0.8</v>
+      </c>
+      <c r="U13">
+        <v>0.6990999999999393</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21">
+      <c r="A14">
+        <v>27.6</v>
+      </c>
+      <c r="B14">
+        <v>0.2044204064517454</v>
+      </c>
+      <c r="C14">
+        <v>9.206122000000001</v>
+      </c>
+      <c r="D14" t="s">
+        <v>21</v>
+      </c>
+      <c r="E14" t="s">
+        <v>22</v>
+      </c>
+      <c r="F14">
+        <v>331</v>
+      </c>
+      <c r="G14" t="s">
+        <v>23</v>
+      </c>
+      <c r="H14">
+        <v>0.3085943</v>
+      </c>
+      <c r="I14">
+        <v>0.01999721</v>
+      </c>
+      <c r="J14">
+        <v>0.006843771</v>
+      </c>
+      <c r="K14">
+        <v>0</v>
+      </c>
+      <c r="L14" t="s">
+        <v>24</v>
+      </c>
+      <c r="M14">
+        <v>0.01565099</v>
+      </c>
+      <c r="N14">
+        <v>0.4099481</v>
+      </c>
+      <c r="O14">
+        <v>0.6</v>
+      </c>
+      <c r="P14">
+        <v>0.35</v>
+      </c>
+      <c r="Q14">
+        <v>0.433590755357832</v>
+      </c>
+      <c r="R14">
+        <v>0.9036481</v>
+      </c>
+      <c r="S14">
+        <v>1.1</v>
+      </c>
+      <c r="T14">
+        <v>0.8</v>
+      </c>
+      <c r="U14">
+        <v>0.7360999999999353</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21">
+      <c r="A15">
+        <v>27.6</v>
+      </c>
+      <c r="B15">
+        <v>0.2043116043560035</v>
+      </c>
+      <c r="C15">
+        <v>9.213259000000001</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15" t="s">
+        <v>22</v>
+      </c>
+      <c r="F15">
+        <v>332</v>
+      </c>
+      <c r="G15" t="s">
+        <v>23</v>
+      </c>
+      <c r="H15">
+        <v>0.3919894</v>
+      </c>
+      <c r="I15">
+        <v>0.01631106</v>
+      </c>
+      <c r="J15">
+        <v>0.01779034</v>
+      </c>
+      <c r="K15">
+        <v>0</v>
+      </c>
+      <c r="L15" t="s">
+        <v>24</v>
+      </c>
+      <c r="M15">
+        <v>0.04060973</v>
+      </c>
+      <c r="N15">
+        <v>0.4100563</v>
+      </c>
+      <c r="O15">
+        <v>0.6</v>
+      </c>
+      <c r="P15">
+        <v>0.35</v>
+      </c>
+      <c r="Q15">
+        <v>0.433812395777442</v>
+      </c>
+      <c r="R15">
+        <v>0.9021348</v>
+      </c>
+      <c r="S15">
+        <v>1.1</v>
+      </c>
+      <c r="T15">
+        <v>0.8</v>
+      </c>
+      <c r="U15">
+        <v>0.7351999999999353</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21">
+      <c r="A16">
+        <v>27.6</v>
+      </c>
+      <c r="B16">
+        <v>0.2042386273318655</v>
+      </c>
+      <c r="C16">
+        <v>9.218045</v>
+      </c>
+      <c r="D16" t="s">
+        <v>21</v>
+      </c>
+      <c r="E16" t="s">
+        <v>22</v>
+      </c>
+      <c r="F16">
+        <v>333</v>
+      </c>
+      <c r="G16" t="s">
+        <v>23</v>
+      </c>
+      <c r="H16">
+        <v>0.5368534</v>
+      </c>
+      <c r="I16">
+        <v>0.01304531</v>
+      </c>
+      <c r="J16">
+        <v>0.002828915</v>
+      </c>
+      <c r="K16">
+        <v>0</v>
+      </c>
+      <c r="L16" t="s">
+        <v>24</v>
+      </c>
+      <c r="M16">
+        <v>0.005668696</v>
+      </c>
+      <c r="N16">
+        <v>0.4101289</v>
+      </c>
+      <c r="O16">
+        <v>0.6</v>
+      </c>
+      <c r="P16">
+        <v>0.35</v>
+      </c>
+      <c r="Q16">
+        <v>0.433960915469109</v>
+      </c>
+      <c r="R16">
+        <v>0.8830205</v>
+      </c>
+      <c r="S16">
+        <v>1.1</v>
+      </c>
+      <c r="T16">
+        <v>0.8</v>
+      </c>
+      <c r="U16">
+        <v>0.6620999999999434</v>
+      </c>
+    </row>
+    <row r="17" spans="1:21">
+      <c r="A17">
+        <v>27.6</v>
+      </c>
+      <c r="B17">
+        <v>0.2043116043560035</v>
+      </c>
+      <c r="C17">
+        <v>9.213259000000001</v>
+      </c>
+      <c r="D17" t="s">
+        <v>21</v>
+      </c>
+      <c r="E17" t="s">
+        <v>22</v>
+      </c>
+      <c r="F17">
+        <v>334</v>
+      </c>
+      <c r="G17" t="s">
+        <v>23</v>
+      </c>
+      <c r="H17">
+        <v>0.6556321000000001</v>
+      </c>
+      <c r="I17">
+        <v>0.007879205</v>
+      </c>
+      <c r="J17">
+        <v>0.008347726</v>
+      </c>
+      <c r="K17">
+        <v>0</v>
+      </c>
+      <c r="L17" t="s">
+        <v>24</v>
+      </c>
+      <c r="M17">
+        <v>0.01905674</v>
+      </c>
+      <c r="N17">
+        <v>0.4100563</v>
+      </c>
+      <c r="O17">
+        <v>0.6</v>
+      </c>
+      <c r="P17">
+        <v>0.35</v>
+      </c>
+      <c r="Q17">
+        <v>0.433812395777442</v>
+      </c>
+      <c r="R17">
+        <v>0.8317327</v>
+      </c>
+      <c r="S17">
+        <v>1.1</v>
+      </c>
+      <c r="T17">
+        <v>0.8</v>
+      </c>
+      <c r="U17">
+        <v>0.5104999999999601</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
